--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Hafeez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2082</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2083</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2087</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2088</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2097</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2098</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2101</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2104</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2106</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2114</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2115</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2116</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2130</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2131</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2132</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2133</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2134</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2135</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2136</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2137</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2139</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2303</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2304</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2307</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2318</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2320</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2333</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2012,7 +2077,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2334</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2064,7 +2129,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2511</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2116,7 +2181,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2512</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2168,7 +2233,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2513</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2285,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2514</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2272,7 +2337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2515</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2324,7 +2389,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2535</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2376,7 +2441,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2540</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2428,7 +2493,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2542</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2480,7 +2545,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2566</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2532,7 +2597,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2584,7 +2649,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2570</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2636,7 +2701,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2572</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2688,7 +2753,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2613</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2740,7 +2805,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2630</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2792,7 +2857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2844,7 +2909,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2896,7 +2961,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2694</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2948,7 +3013,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2744</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3000,7 +3065,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3052,7 +3117,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3104,7 +3169,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3156,7 +3221,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3208,7 +3273,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3260,7 +3325,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3196</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3312,7 +3377,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3197</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3364,7 +3429,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3198</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3416,7 +3481,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3468,7 +3533,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3203</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3520,7 +3585,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3572,7 +3637,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3624,7 +3689,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3676,7 +3741,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3728,7 +3793,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3780,7 +3845,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3832,7 +3897,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3240</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3884,7 +3949,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3244</t>
+          <t>3244</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3936,7 +4001,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3251</t>
+          <t>3251</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3988,7 +4053,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3258</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4040,7 +4105,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3267</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4092,7 +4157,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3274</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4144,7 +4209,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4196,7 +4261,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3282</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4248,7 +4313,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4300,7 +4365,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4352,7 +4417,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4404,7 +4469,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4456,7 +4521,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4508,7 +4573,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4560,7 +4625,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4612,7 +4677,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3324</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4664,7 +4729,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3326</t>
+          <t>3326</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4716,7 +4781,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4768,7 +4833,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3348</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4820,7 +4885,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3349</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4872,7 +4937,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3350</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4924,7 +4989,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4976,7 +5041,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5028,7 +5093,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5080,7 +5145,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5132,7 +5197,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5184,7 +5249,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5236,7 +5301,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5288,7 +5353,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5340,7 +5405,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5392,7 +5457,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5444,7 +5509,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5496,7 +5561,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5548,7 +5613,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5600,7 +5665,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5652,7 +5717,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5704,7 +5769,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5756,7 +5821,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5808,7 +5873,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5860,7 +5925,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5912,7 +5977,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5964,7 +6029,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6016,7 +6081,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6068,7 +6133,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6120,7 +6185,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6172,7 +6237,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6224,7 +6289,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3484</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6276,7 +6341,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3487</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6328,7 +6393,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3488</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6380,7 +6445,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3489</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6432,7 +6497,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6484,7 +6549,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3497</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6536,7 +6601,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6588,7 +6653,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6640,7 +6705,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6692,7 +6757,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6744,7 +6809,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6796,7 +6861,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6848,7 +6913,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6900,7 +6965,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6952,7 +7017,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7004,7 +7069,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7056,7 +7121,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3546</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7108,7 +7173,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3549</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7160,7 +7225,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3550</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7212,7 +7277,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7264,7 +7329,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7316,7 +7381,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7368,7 +7433,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7420,7 +7485,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7472,7 +7537,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3582</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7524,7 +7589,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3584</t>
+          <t>3584</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7576,7 +7641,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7628,7 +7693,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7680,7 +7745,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7732,7 +7797,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7784,7 +7849,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7836,7 +7901,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7888,7 +7953,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7940,7 +8005,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7992,7 +8057,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8044,7 +8109,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8096,7 +8161,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8148,7 +8213,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8200,7 +8265,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3666</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8252,7 +8317,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8304,7 +8369,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8356,7 +8421,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8408,7 +8473,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8460,7 +8525,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8512,7 +8577,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8564,7 +8629,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8616,7 +8681,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8668,7 +8733,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8720,7 +8785,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8772,7 +8837,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8824,7 +8889,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8876,7 +8941,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8928,7 +8993,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8980,7 +9045,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9032,7 +9097,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9084,7 +9149,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9136,7 +9201,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9188,7 +9253,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9240,7 +9305,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9292,7 +9357,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9344,7 +9409,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9396,7 +9461,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9448,7 +9513,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9500,7 +9565,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9552,7 +9617,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9604,7 +9669,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9656,7 +9721,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9708,7 +9773,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9760,7 +9825,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9812,7 +9877,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9864,7 +9929,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9916,7 +9981,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9968,7 +10033,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10020,7 +10085,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10072,7 +10137,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10124,7 +10189,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10176,7 +10241,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10228,7 +10293,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10280,7 +10345,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10332,7 +10397,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10384,7 +10449,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10436,7 +10501,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10488,7 +10553,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10540,7 +10605,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10580,7 +10645,6 @@
           <t>195</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -10588,7 +10652,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10640,7 +10704,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10692,7 +10756,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10744,7 +10808,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10796,7 +10860,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10848,7 +10912,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10900,7 +10964,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10952,7 +11016,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -11004,7 +11068,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11056,7 +11120,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11108,7 +11172,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11160,7 +11224,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11200,7 +11264,6 @@
           <t>207</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -11208,7 +11271,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11260,7 +11323,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11312,7 +11375,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11364,7 +11427,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11416,7 +11479,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11468,7 +11531,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11520,7 +11583,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11572,7 +11635,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11624,7 +11687,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11676,7 +11739,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11728,7 +11791,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11780,7 +11843,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11819,7 +11882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11841,7 +11904,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11878,7 +11941,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2082</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11915,7 +11978,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2083</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11952,7 +12015,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2087</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11989,7 +12052,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2088</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12026,7 +12089,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2097</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12063,7 +12126,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2101</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12100,7 +12163,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2104</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12137,7 +12200,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2106</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12174,7 +12237,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2114</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12211,7 +12274,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2115</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12248,7 +12311,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2116</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -12285,7 +12348,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2130</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12322,7 +12385,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2131</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12359,7 +12422,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2132</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12396,7 +12459,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2133</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12433,7 +12496,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2134</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12470,7 +12533,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2135</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -12507,7 +12570,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2136</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12544,7 +12607,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2137</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12581,7 +12644,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12618,7 +12681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2139</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -12655,7 +12718,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2303</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12692,7 +12755,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2304</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12729,7 +12792,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2307</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -12766,7 +12829,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -12803,7 +12866,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2318</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -12840,7 +12903,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2320</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -12877,7 +12940,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2333</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -12914,7 +12977,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2334</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -12951,7 +13014,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2511</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -12988,7 +13051,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2512</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -13025,7 +13088,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2513</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -13062,7 +13125,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2514</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -13099,7 +13162,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2535</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -13136,7 +13199,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2542</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -13173,7 +13236,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2566</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -13210,7 +13273,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -13247,7 +13310,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2570</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -13284,7 +13347,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2572</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -13321,7 +13384,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2613</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -13358,7 +13421,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2630</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -13395,7 +13458,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -13432,7 +13495,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -13469,7 +13532,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2694</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -13506,7 +13569,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2744</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -13543,7 +13606,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -13580,7 +13643,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -13617,7 +13680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -13654,7 +13717,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -13691,7 +13754,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3196</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -13728,7 +13791,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3197</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -13765,7 +13828,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3198</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -13802,7 +13865,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -13839,7 +13902,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3203</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -13876,7 +13939,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -13913,7 +13976,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -13950,7 +14013,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -13987,7 +14050,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -14024,7 +14087,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3240</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -14061,7 +14124,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3244</t>
+          <t>3244</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -14098,7 +14161,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3251</t>
+          <t>3251</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14135,7 +14198,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3258</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -14172,7 +14235,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3267</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -14209,7 +14272,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3274</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -14246,7 +14309,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14283,7 +14346,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3282</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -14320,7 +14383,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14357,7 +14420,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14394,7 +14457,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14431,7 +14494,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14468,7 +14531,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14505,7 +14568,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14542,7 +14605,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3324</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14579,7 +14642,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3326</t>
+          <t>3326</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -14616,7 +14679,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -14653,7 +14716,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3348</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -14690,7 +14753,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3349</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -14727,7 +14790,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3350</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -14764,7 +14827,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -14801,7 +14864,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -14838,7 +14901,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -14875,7 +14938,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -14912,7 +14975,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -14949,7 +15012,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -14986,7 +15049,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -15023,7 +15086,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -15060,7 +15123,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -15097,7 +15160,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -15134,7 +15197,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -15171,7 +15234,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -15208,7 +15271,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -15245,7 +15308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -15282,7 +15345,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -15319,7 +15382,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -15356,7 +15419,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -15393,7 +15456,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -15430,7 +15493,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -15467,7 +15530,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -15504,7 +15567,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -15541,7 +15604,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -15578,7 +15641,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -15615,7 +15678,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -15652,7 +15715,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3484</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -15689,7 +15752,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3487</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -15726,7 +15789,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3488</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -15763,7 +15826,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3489</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -15800,7 +15863,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -15837,7 +15900,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3497</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -15874,7 +15937,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -15911,7 +15974,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -15948,7 +16011,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -15985,7 +16048,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -16022,7 +16085,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -16059,7 +16122,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -16096,7 +16159,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -16133,7 +16196,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -16170,7 +16233,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -16207,7 +16270,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -16244,7 +16307,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3546</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -16281,7 +16344,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3549</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -16318,7 +16381,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3550</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -16355,7 +16418,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -16392,7 +16455,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -16429,7 +16492,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -16466,7 +16529,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -16503,7 +16566,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -16540,7 +16603,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3582</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -16577,7 +16640,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3584</t>
+          <t>3584</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -16614,7 +16677,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -16651,7 +16714,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -16688,7 +16751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -16725,7 +16788,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -16762,7 +16825,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -16799,7 +16862,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -16836,7 +16899,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -16873,7 +16936,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -16910,7 +16973,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16947,7 +17010,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16984,7 +17047,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -17021,7 +17084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -17058,7 +17121,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -17095,7 +17158,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -17132,7 +17195,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -17169,7 +17232,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -17206,7 +17269,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17243,7 +17306,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17280,7 +17343,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17317,7 +17380,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17354,7 +17417,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17391,7 +17454,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17428,7 +17491,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17465,7 +17528,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17502,7 +17565,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17539,7 +17602,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17576,7 +17639,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -17613,7 +17676,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -17650,7 +17713,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -17687,7 +17750,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -17724,7 +17787,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -17761,7 +17824,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -17798,7 +17861,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -17835,7 +17898,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -17872,7 +17935,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -17909,7 +17972,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -17946,7 +18009,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -17983,7 +18046,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -18020,7 +18083,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -18057,7 +18120,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -18094,7 +18157,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -18131,7 +18194,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -18168,7 +18231,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -18205,7 +18268,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -18242,7 +18305,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -18279,7 +18342,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -18316,7 +18379,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -18353,7 +18416,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -18390,7 +18453,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -18416,6 +18479,553 @@
       <c r="G178" t="inlineStr">
         <is>
           <t>0/32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.59%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.43%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16.40%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.35%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15.24%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17.29%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18539,313 +18540,663 @@
           <t>4110</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.59%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.43%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16.40%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.35%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15.24%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17.29%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4114</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.34%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4079</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4223</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
+          <t>4081</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.59%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>4087</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.43%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>16.40%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.35%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15.24%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18855,13 +19206,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18869,27 +19213,14 @@
           <t>4319</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>4</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>17.29%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -18899,29 +19230,12 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.25%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18929,29 +19243,12 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.49%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18961,13 +19258,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18975,29 +19265,12 @@
           <t>4340</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19005,29 +19278,12 @@
           <t>4349</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8.57%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18540,6 +18539,10 @@
           <t>4110</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18595,6 +18598,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18607,6 +18611,10 @@
           <t>4225</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18619,6 +18627,10 @@
           <t>4227</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18724,6 +18736,9 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18736,6 +18751,10 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18791,6 +18810,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18833,6 +18853,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18935,6 +18959,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -19000,290 +19028,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4050</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4079</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4081</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4082</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4084</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4087</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4223</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3101.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10645,6 +10644,7 @@
           <t>195</t>
         </is>
       </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -11264,6 +11264,7 @@
           <t>207</t>
         </is>
       </c>
+      <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -18485,551 +18486,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4110</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4114</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.34%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4223</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.59%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.43%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>16.40%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.35%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15.24%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>17.29%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.25%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.49%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8.57%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>